--- a/doc/04_画面遷移図_チームドアラ.xlsx
+++ b/doc/04_画面遷移図_チームドアラ.xlsx
@@ -5,23 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C21776F-5C60-49DC-98D6-28EC78374340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4251C8C9-FBC2-4DC6-9883-3EA3C7260B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="840" windowWidth="15375" windowHeight="9705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
     <sheet name="アイテム" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -226,6 +238,14 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回ログイン時のみ体重を記録</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +318,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +401,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -962,6 +991,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="34" idx="3"/>
           <a:endCxn id="72" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -1015,6 +1045,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="72" idx="3"/>
           <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -2133,6 +2164,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="83" idx="3"/>
           <a:endCxn id="72" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -2636,6 +2668,71 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170962</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647211</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2486D15E-C129-4996-82E3-D7B539B8DD4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4274039" y="3724519"/>
+          <a:ext cx="476249" cy="268654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3309,10 +3406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3392,6 +3489,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
